--- a/ijcv冲鸭.xlsx
+++ b/ijcv冲鸭.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA45458-AC34-4BD0-8260-D8D3B35F57F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F44D04-472F-4749-A1E1-10715B64E281}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6AF2A19-1C58-450C-81C9-2DB8BC6626E5}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{D6AF2A19-1C58-450C-81C9-2DB8BC6626E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>解耦</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>mxx全程跑实验，曹老板全程指导，ijcv冲冲冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,11 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71126C78-08FE-4B98-8A4B-C4AEAFEBD83B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -534,27 +538,27 @@
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -565,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -578,8 +582,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -590,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -601,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -612,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -626,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -637,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -648,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -659,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -670,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>

--- a/ijcv冲鸭.xlsx
+++ b/ijcv冲鸭.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\IIW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F44D04-472F-4749-A1E1-10715B64E281}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008C360-CF92-48DA-A13A-3EFDFDBCDEAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{D6AF2A19-1C58-450C-81C9-2DB8BC6626E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6AF2A19-1C58-450C-81C9-2DB8BC6626E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>解耦</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2FPA训练模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmd,mx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71126C78-08FE-4B98-8A4B-C4AEAFEBD83B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -599,57 +611,57 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -657,10 +669,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -668,10 +680,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -679,12 +691,23 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
